--- a/Running projects/NASTP/Consumable Material Quotation for NASTP.xlsx
+++ b/Running projects/NASTP/Consumable Material Quotation for NASTP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B4618-1580-4265-B7B1-5E8DC5BBC5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C60606-E5B9-4917-AFF8-396050EBB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$6:$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>S NO</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">Mixing Oil </t>
   </si>
   <si>
-    <t xml:space="preserve">Belt (SKF) SPA-857, SPZ-662, A-46, A-48, B-48, A-70 </t>
-  </si>
-  <si>
     <t>PU Foam Spray</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Drain opener ( DADEX)</t>
   </si>
   <si>
-    <t>Bearing (SKF) 6205, 6206,6208, 6209, 6309</t>
-  </si>
-  <si>
     <t>PVC black Tape 2"</t>
   </si>
   <si>
@@ -174,6 +168,33 @@
   </si>
   <si>
     <t>Nos</t>
+  </si>
+  <si>
+    <t>Belt (SKF) A-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belt (SKF) A-70 </t>
+  </si>
+  <si>
+    <t>Bearing (SKF) 6205</t>
+  </si>
+  <si>
+    <t>Bearing (SKF) 6206</t>
+  </si>
+  <si>
+    <t>Bearing (SKF) 6208</t>
+  </si>
+  <si>
+    <t>Bearing (SKF) 6209</t>
+  </si>
+  <si>
+    <t>Bearing (SKF) 6309</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Fiber Glass Expansion Tank 50 Gallon</t>
   </si>
 </sst>
 </file>
@@ -182,7 +203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -335,25 +356,16 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +373,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -385,15 +406,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469406</xdr:colOff>
+      <xdr:colOff>383681</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>92868</xdr:rowOff>
+      <xdr:rowOff>54768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1027907</xdr:colOff>
+      <xdr:colOff>942182</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>345280</xdr:rowOff>
+      <xdr:rowOff>307180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -417,8 +438,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="469406" y="92868"/>
-          <a:ext cx="1165720" cy="895350"/>
+          <a:off x="383681" y="54768"/>
+          <a:ext cx="1063326" cy="900112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -437,15 +458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1014431</xdr:colOff>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>232565</xdr:rowOff>
+      <xdr:rowOff>137315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1107281</xdr:colOff>
+      <xdr:colOff>992981</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>457330</xdr:rowOff>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -462,8 +483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1621650" y="423065"/>
-          <a:ext cx="5153006" cy="677203"/>
+          <a:off x="1466850" y="327815"/>
+          <a:ext cx="4431506" cy="691360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -540,15 +561,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>377449</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>74776</xdr:rowOff>
+      <xdr:colOff>406024</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>65251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -577,8 +598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="17440275"/>
-          <a:ext cx="727493" cy="560550"/>
+          <a:off x="180975" y="17726025"/>
+          <a:ext cx="729874" cy="560551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,36 +877,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J72"/>
+  <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+    <row r="3" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="8">
         <v>45360</v>
@@ -893,61 +914,61 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -957,7 +978,7 @@
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -965,10 +986,10 @@
       <c r="D10" s="2">
         <v>30</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>167</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f>E10*D10</f>
         <v>5010</v>
       </c>
@@ -991,7 +1012,7 @@
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -999,10 +1020,10 @@
       <c r="D11" s="2">
         <v>30</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>193</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f>E11*D11</f>
         <v>5790</v>
       </c>
@@ -1014,18 +1035,18 @@
         <v>163.19999999999999</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I60" si="0">H11*1.18</f>
+        <f t="shared" ref="I11:I61" si="0">H11*1.18</f>
         <v>192.57599999999996</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J60" si="1">ROUND(I11,0)</f>
+        <f t="shared" ref="J11:J61" si="1">ROUND(I11,0)</f>
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1033,10 +1054,10 @@
       <c r="D12" s="2">
         <v>30</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>236</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f>E12*D12</f>
         <v>7080</v>
       </c>
@@ -1059,7 +1080,7 @@
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1067,10 +1088,10 @@
       <c r="D13" s="2">
         <v>30</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>450</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f>E13*D13</f>
         <v>13500</v>
       </c>
@@ -1095,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F60" si="2">D14*E14</f>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14" si="2">D14*E14</f>
         <v>0</v>
       </c>
       <c r="I14">
@@ -1116,7 +1137,7 @@
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1124,11 +1145,11 @@
       <c r="D15" s="2">
         <v>30</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>170</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" ref="F15:F60" si="3">E15*D15</f>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15:F66" si="3">E15*D15</f>
         <v>5100</v>
       </c>
       <c r="G15">
@@ -1150,7 +1171,7 @@
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -1158,10 +1179,10 @@
       <c r="D16" s="2">
         <v>30</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>218</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="3"/>
         <v>6540</v>
       </c>
@@ -1184,7 +1205,7 @@
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1192,10 +1213,10 @@
       <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>262</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" si="3"/>
         <v>7860</v>
       </c>
@@ -1218,7 +1239,7 @@
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1226,10 +1247,10 @@
       <c r="D18" s="2">
         <v>30</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>348</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="3"/>
         <v>10440</v>
       </c>
@@ -1254,12 +1275,12 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1275,18 +1296,18 @@
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
         <v>6</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>68</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" si="3"/>
         <v>408</v>
       </c>
@@ -1294,7 +1315,7 @@
         <v>48</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H60" si="4">G20*1.2</f>
+        <f t="shared" ref="H20:H61" si="4">G20*1.2</f>
         <v>57.599999999999994</v>
       </c>
       <c r="I20">
@@ -1309,18 +1330,18 @@
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>91</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f t="shared" si="3"/>
         <v>546</v>
       </c>
@@ -1343,18 +1364,18 @@
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>154</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" si="3"/>
         <v>924</v>
       </c>
@@ -1377,18 +1398,18 @@
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>198</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <f t="shared" si="3"/>
         <v>1188</v>
       </c>
@@ -1413,12 +1434,12 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1434,18 +1455,18 @@
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>116</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f t="shared" si="3"/>
         <v>696</v>
       </c>
@@ -1468,18 +1489,18 @@
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>147</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <f t="shared" si="3"/>
         <v>882</v>
       </c>
@@ -1502,18 +1523,18 @@
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>190</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f t="shared" si="3"/>
         <v>1140</v>
       </c>
@@ -1536,18 +1557,18 @@
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2">
         <v>6</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>266</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <f t="shared" si="3"/>
         <v>1596</v>
       </c>
@@ -1572,28 +1593,28 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
         <v>6</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>443</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <f t="shared" si="3"/>
         <v>2658</v>
       </c>
@@ -1616,18 +1637,18 @@
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2">
         <v>6</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>711</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <f t="shared" si="3"/>
         <v>4266</v>
       </c>
@@ -1650,18 +1671,18 @@
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>826</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <f t="shared" si="3"/>
         <v>4956</v>
       </c>
@@ -1684,18 +1705,18 @@
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2">
         <v>6</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>1167</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <f t="shared" si="3"/>
         <v>7002</v>
       </c>
@@ -1728,10 +1749,10 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>13870</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <f t="shared" si="3"/>
         <v>13870</v>
       </c>
@@ -1764,18 +1785,19 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E35" s="9">
+        <v>13800</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
+        <v>13800</v>
+      </c>
+      <c r="G35">
+        <v>13000</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G35*1.07</f>
+        <v>13910</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
@@ -1787,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -1795,10 +1817,10 @@
       <c r="D36" s="2">
         <v>24</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>212</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <f t="shared" si="3"/>
         <v>5088</v>
       </c>
@@ -1831,10 +1853,10 @@
       <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>4250</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <f t="shared" si="3"/>
         <v>21250</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -1867,10 +1889,10 @@
       <c r="D38" s="2">
         <v>24</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>2550</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <f t="shared" si="3"/>
         <v>61200</v>
       </c>
@@ -1903,10 +1925,10 @@
       <c r="D39" s="2">
         <v>150</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>115</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <f t="shared" si="3"/>
         <v>17250</v>
       </c>
@@ -1939,10 +1961,10 @@
       <c r="D40" s="2">
         <v>40</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>990</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <f t="shared" si="3"/>
         <v>39600</v>
       </c>
@@ -1975,10 +1997,10 @@
       <c r="D41" s="2">
         <v>150</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>1130</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <f t="shared" si="3"/>
         <v>169500</v>
       </c>
@@ -1998,12 +2020,12 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -2011,68 +2033,84 @@
       <c r="D42" s="2">
         <v>6</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E42" s="9">
+        <v>1490</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="3"/>
+        <v>8940</v>
+      </c>
+      <c r="G42">
+        <v>1150</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G42*1.1</f>
+        <v>1265</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1492.6999999999998</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>15</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>7</v>
+      <c r="B43" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
         <v>6</v>
       </c>
-      <c r="D43" s="2">
-        <v>30</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E43" s="9">
+        <v>2330</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="3"/>
+        <v>13980</v>
+      </c>
+      <c r="G43">
+        <v>1800</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G43*1.1</f>
+        <v>1980.0000000000002</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2336.4</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>16</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>30</v>
+      </c>
+      <c r="E44" s="9">
+        <v>600</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="3"/>
+        <v>18000</v>
       </c>
       <c r="H44">
         <f t="shared" si="4"/>
@@ -2088,172 +2126,166 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2">
+        <v>17</v>
+      </c>
       <c r="B45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="2">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10">
-        <v>7583</v>
-      </c>
-      <c r="F45" s="10">
-        <f t="shared" si="3"/>
-        <v>45498</v>
-      </c>
-      <c r="G45">
-        <v>5355</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H45">
         <f t="shared" si="4"/>
-        <v>6426</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>7582.6799999999994</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>7583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="10">
-        <v>11193</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" si="3"/>
-        <v>67158</v>
+      <c r="E46" s="9">
+        <v>7583</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="3"/>
+        <v>45498</v>
       </c>
       <c r="G46">
-        <v>7905</v>
+        <v>5355</v>
       </c>
       <c r="H46">
         <f t="shared" si="4"/>
-        <v>9486</v>
+        <v>6426</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>11193.48</v>
+        <v>7582.6799999999994</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>11193</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" s="2">
         <v>6</v>
       </c>
-      <c r="E47" s="10">
-        <v>12999</v>
-      </c>
-      <c r="F47" s="10">
-        <f t="shared" si="3"/>
-        <v>77994</v>
+      <c r="E47" s="9">
+        <v>11193</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="3"/>
+        <v>67158</v>
       </c>
       <c r="G47">
-        <v>9180</v>
+        <v>7905</v>
       </c>
       <c r="H47">
         <f t="shared" si="4"/>
-        <v>11016</v>
+        <v>9486</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>12998.88</v>
+        <v>11193.48</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>12999</v>
+        <v>11193</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
         <v>6</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
+        <v>12999</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="3"/>
+        <v>77994</v>
+      </c>
+      <c r="G48">
+        <v>9180</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>11016</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>12998.88</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
+      <c r="E49" s="9">
         <v>20822</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="9">
         <f t="shared" si="3"/>
         <v>124932</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>14705</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f t="shared" si="4"/>
         <v>17646</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <f t="shared" si="0"/>
         <v>20822.28</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <f t="shared" si="1"/>
         <v>20822</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>17</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-      <c r="E49" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,104 +2293,104 @@
         <v>18</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
-        <v>1270</v>
-      </c>
-      <c r="F50" s="10">
-        <f t="shared" si="3"/>
-        <v>1270</v>
-      </c>
-      <c r="G50">
-        <v>900</v>
+        <v>2</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="H50">
         <f t="shared" si="4"/>
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>1274.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>19</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>18</v>
+      <c r="B51" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2">
-        <v>6</v>
-      </c>
-      <c r="E51" s="10">
-        <v>6200</v>
-      </c>
-      <c r="F51" s="10">
-        <f t="shared" si="3"/>
-        <v>37200</v>
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1270</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="3"/>
+        <v>1270</v>
       </c>
       <c r="G51">
-        <v>5500</v>
+        <v>900</v>
       </c>
       <c r="H51">
         <f t="shared" si="4"/>
-        <v>6600</v>
+        <v>1080</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>7788</v>
+        <v>1274.3999999999999</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>20</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>19</v>
+      <c r="B52" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>40</v>
-      </c>
-      <c r="E52" s="10">
-        <v>350</v>
-      </c>
-      <c r="F52" s="10">
-        <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>6</v>
+      </c>
+      <c r="E52" s="9">
+        <v>6200</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="3"/>
+        <v>37200</v>
+      </c>
+      <c r="G52">
+        <v>5500</v>
       </c>
       <c r="H52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7788</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,20 +2398,20 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
-        <v>4</v>
-      </c>
-      <c r="E53" s="10">
-        <v>300</v>
-      </c>
-      <c r="F53" s="10">
-        <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>40</v>
+      </c>
+      <c r="E53" s="9">
+        <v>350</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="3"/>
+        <v>14000</v>
       </c>
       <c r="H53">
         <f t="shared" si="4"/>
@@ -2398,36 +2430,33 @@
       <c r="A54" s="2">
         <v>22</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>21</v>
+      <c r="B54" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="2">
-        <v>6</v>
-      </c>
-      <c r="E54" s="10">
-        <v>1345</v>
-      </c>
-      <c r="F54" s="10">
-        <f t="shared" si="3"/>
-        <v>8070</v>
-      </c>
-      <c r="G54">
-        <v>950</v>
+        <v>4</v>
+      </c>
+      <c r="E54" s="9">
+        <v>300</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="H54">
         <f t="shared" si="4"/>
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>1345.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>1345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,71 +2464,71 @@
         <v>23</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="2">
-        <v>12</v>
-      </c>
-      <c r="E55" s="10">
-        <v>530</v>
-      </c>
-      <c r="F55" s="10">
-        <f t="shared" si="3"/>
-        <v>6360</v>
+        <v>6</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1345</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="3"/>
+        <v>8070</v>
       </c>
       <c r="G55">
-        <v>380</v>
+        <v>950</v>
       </c>
       <c r="H55">
         <f t="shared" si="4"/>
-        <v>456</v>
+        <v>1140</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>538.07999999999993</v>
+        <v>1345.1999999999998</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="2">
-        <v>50</v>
-      </c>
-      <c r="E56" s="10">
-        <v>7</v>
-      </c>
-      <c r="F56" s="10">
-        <f t="shared" si="3"/>
-        <v>350</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="9">
+        <v>530</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="3"/>
+        <v>6360</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="H56">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>7.08</v>
+        <v>538.07999999999993</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,35 +2536,35 @@
         <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="2">
+        <v>50</v>
+      </c>
+      <c r="E57" s="9">
+        <v>7</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="E57" s="10">
-        <v>140</v>
-      </c>
-      <c r="F57" s="10">
-        <f t="shared" si="3"/>
-        <v>840</v>
-      </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>141.6</v>
+        <v>7.08</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2543,30 +2572,35 @@
         <v>26</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E58" s="9">
+        <v>140</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
       </c>
       <c r="H58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141.6</v>
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,7 +2608,7 @@
         <v>27</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -2582,33 +2616,32 @@
       <c r="D59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>200</v>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H59">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>283.2</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>28</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -2616,110 +2649,326 @@
       <c r="D60" s="2">
         <v>2</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>200</v>
       </c>
       <c r="H60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>283.2</v>
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="A61" s="2">
+        <v>29</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2070</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="3"/>
+        <v>4140</v>
+      </c>
+      <c r="G61">
+        <v>1600</v>
+      </c>
+      <c r="H61">
+        <f>G61*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>2076.8000000000002</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="14"/>
-    </row>
-    <row r="64" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>30</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="9">
+        <v>2330</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="3"/>
+        <v>4660</v>
+      </c>
+      <c r="G62">
+        <v>1800</v>
+      </c>
+      <c r="H62">
+        <f>G62*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:I65" si="5">H62*1.18</f>
+        <v>2336.4</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62:J65" si="6">ROUND(I62,0)</f>
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>31</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4540</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="3"/>
+        <v>9080</v>
+      </c>
+      <c r="G63">
+        <v>3500</v>
+      </c>
+      <c r="H63">
+        <f>G63*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="5"/>
+        <v>4543</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>32</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="9">
+        <v>5195</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="3"/>
+        <v>10390</v>
+      </c>
+      <c r="G64">
+        <v>4000</v>
+      </c>
+      <c r="H64">
+        <f>G64*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="5"/>
+        <v>5192</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>33</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="9">
+        <v>7780</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="3"/>
+        <v>15560</v>
+      </c>
+      <c r="G65">
+        <v>6000</v>
+      </c>
+      <c r="H65">
+        <f>G65*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="5"/>
+        <v>7788.0000000000009</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>34</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>127000</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="3"/>
+        <v>127000</v>
+      </c>
+      <c r="G66">
+        <v>103000</v>
+      </c>
+      <c r="H66">
+        <f>G66*1.05</f>
+        <v>108150</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I67" si="7">H66*1.18</f>
+        <v>127617</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J67" si="8">ROUND(I66,0)</f>
+        <v>127617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.11811023622047245" top="0" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="5" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>